--- a/Test/MC_Ssf/T1/Sensors_data_1000015.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000015.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6536285259060102</v>
+        <v>0.9631096438116427</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01303022805438876</v>
+        <v>0.001387786784114587</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6337078676158581</v>
+        <v>-0.03421025399737232</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9309823602362495</v>
+        <v>0.8393666026096122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001502810906809223</v>
+        <v>0.003497680048498035</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1681524561427122</v>
+        <v>0.2350312659922282</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7883966359159335</v>
+        <v>0.8766893819938124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009563505893290357</v>
+        <v>0.005573076907883855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006453752436854643</v>
+        <v>-0.00057913219644945</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1538625783733522</v>
+        <v>0.8671722415228345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03045026488849811</v>
+        <v>0.004780122385320774</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8743831691192852</v>
+        <v>0.009867702760014918</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.162727268361899</v>
+        <v>-1.527923011968958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06582675489173968</v>
+        <v>0.07694218819375594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3764003594851659</v>
+        <v>0.4159767807047022</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7873049658922983</v>
+        <v>0.3337110093923339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007363391253933801</v>
+        <v>0.02306657767829482</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2707696426792551</v>
+        <v>0.3358713678452395</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -625,13 +625,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2355701098840477</v>
+        <v>-1.436365166044656</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04559803220879883</v>
+        <v>0.1453285105019226</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4482977144374242</v>
+        <v>0.7969128421984871</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
